--- a/biology/Médecine/Sievert/Sievert.xlsx
+++ b/biology/Médecine/Sievert/Sievert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sievert (de symbole Sv) est une unité utilisée pour évaluer l'impact de la radioactivité sur le corps humain[1]. Elle dérive du gray, qui est une unité de mesure physique, en pondérant l'effet des rayonnements par la dangerosité de ces rayonnements, d'une part, et les tissus biologiques affectés, d'autre part. 
-Plus précisément, c'est l'unité dérivée du Système international utilisée pour mesurer une dose équivalente, une dose efficace ou un débit de dose radioactive (Sv/s, Sv/h ou Sv/an)[2], c'est-à-dire pour évaluer quantitativement l'impact biologique d'une exposition humaine à des rayonnements ionisants. Le sievert ne peut donc pas être utilisé pour quantifier l'exposition reçue par des animaux de laboratoire, il est remplacé dans cet usage par le gray.
+Le sievert (de symbole Sv) est une unité utilisée pour évaluer l'impact de la radioactivité sur le corps humain. Elle dérive du gray, qui est une unité de mesure physique, en pondérant l'effet des rayonnements par la dangerosité de ces rayonnements, d'une part, et les tissus biologiques affectés, d'autre part. 
+Plus précisément, c'est l'unité dérivée du Système international utilisée pour mesurer une dose équivalente, une dose efficace ou un débit de dose radioactive (Sv/s, Sv/h ou Sv/an), c'est-à-dire pour évaluer quantitativement l'impact biologique d'une exposition humaine à des rayonnements ionisants. Le sievert ne peut donc pas être utilisé pour quantifier l'exposition reçue par des animaux de laboratoire, il est remplacé dans cet usage par le gray.
 L'effet des rayonnements dépend d'abord de l'énergie ionisante reçue physiquement par chaque unité de masse. Le sievert est donc homogène au gray, c'est-à-dire au joule par kilogramme. Cependant, l'effet spécifique de cette énergie est traduit par deux coefficients, l'un rendant compte de l'efficacité biologique des différents rayonnements, et l'autre de l'impact biologique de l'atteinte d'un organe donné. Ces deux facteurs de pondération sont des grandeurs sans dimension, évalués par des études sur la santé et susceptibles de mise à jour.
 Cette unité a été nommée en hommage à Rolf Sievert, physicien suédois ayant travaillé sur la mesure des doses radioactives et sur les effets biologiques des radiations.
 </t>
@@ -515,16 +527,53 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dans le Système international d'unités :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le Système international d'unités :
 [Gy] = [Sv] = J/kg = m2/s2
 Le sievert est donc homogène au gray, autre unité utilisée en dosimétrie, qui mesure la dose absorbée (l'énergie absorbée par unité de masse) indépendamment de son effet biologique.
 La dose absorbée, D, se calcule directement en grays : c'est l'énergie absorbée par unité de masse considérée.
 Par rapport à la dose absorbée, la dose efficace, E, tient compte de deux facteurs supplémentaires sans dimension (le facteur de pondération du rayonnement wR et le facteur de pondération tissulaire wT), qui traduisent l'effet relatif du rayonnement considéré sur l'organe considéré, par rapport à un rayonnement de référence.
-Ces deux facteurs de pondérations sont prescrits dans les recommandations 2007 de la Commission internationale de protection radiologique[3]. Ainsi, les doses efficace E et équivalente H sont différentes des doses absorbées D, puisqu'elles dépendent de la valeur des facteurs wR et de wT. Afin d'éviter tout risque de confusion, on utilise l'unité « gray » ou « joule par kilogramme » pour la dose absorbée D et l'unité « sievert » pour la dose équivalente H ou efficace E.
-Pondération de la nature du rayonnement
-D'une part, les effets biologiques ne dépendent pas uniquement de l'énergie reçue par le rayonnement ionisant, mais également de la nature de ce rayonnement. Cette différence est prise en compte dans le facteur de pondération du rayonnement, qui permet de calculer la dose équivalente : quand on constate qu'à énergie égale des protons provoquent en moyenne deux fois plus de cancers que les rayons gamma, on traduit ce résultat expérimental en indiquant que le facteur de pondération associé aux protons est de deux. Pour chaque rayonnement, on peut ainsi définir la dose équivalente qui correspond à la dose de rayonnement gamma qui conduit à des résultats (sensiblement) équivalents.
+Ces deux facteurs de pondérations sont prescrits dans les recommandations 2007 de la Commission internationale de protection radiologique. Ainsi, les doses efficace E et équivalente H sont différentes des doses absorbées D, puisqu'elles dépendent de la valeur des facteurs wR et de wT. Afin d'éviter tout risque de confusion, on utilise l'unité « gray » ou « joule par kilogramme » pour la dose absorbée D et l'unité « sievert » pour la dose équivalente H ou efficace E.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sievert</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sievert</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pondération de la nature du rayonnement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'une part, les effets biologiques ne dépendent pas uniquement de l'énergie reçue par le rayonnement ionisant, mais également de la nature de ce rayonnement. Cette différence est prise en compte dans le facteur de pondération du rayonnement, qui permet de calculer la dose équivalente : quand on constate qu'à énergie égale des protons provoquent en moyenne deux fois plus de cancers que les rayons gamma, on traduit ce résultat expérimental en indiquant que le facteur de pondération associé aux protons est de deux. Pour chaque rayonnement, on peut ainsi définir la dose équivalente qui correspond à la dose de rayonnement gamma qui conduit à des résultats (sensiblement) équivalents.
 La dose équivalente, H, est le produit de la dose absorbée D de rayonnements ionisants par un facteur sans dimension : wR (facteur de pondération traduisant à énergie équivalente l'effet propre aux différents rayonnements).
 Le facteur de pondération du rayonnement wR reflète l'efficacité biologique relative de la radiation. En voici quelques valeurs :
 photons, toutes énergies (rayons X, rayons gamma) : wR = 1 ;
@@ -533,12 +582,46 @@
 wR = 2,5 pour des énergies &lt; 10 keV et des énergies &gt; 1 GeV,
 entre 10 keV et 1 GeV, courbe gaussienne avec un maximum à wR = 20 pour une énergie de 1 MeV ;
 protons, énergie &gt; 2 MeV : wR = 5 ;
-particules alpha et autres noyaux atomiques : wR = 20.
-Pondération de la sensibilité du tissu biologique
-D'autre part, la dose équivalente permet de calculer des effets biologiques quand un organisme est exposé dans son ensemble à une dose relativement homogène, mais quand une exposition n'est que partielle, sa gravité doit encore être pondérée par la nature du tissu biologique qui a été exposé : quand une exposition est locale, son effet (essentiellement, un potentiel carcinogène ou mutagène) n'a pas la même gravité suivant que les cellules de l'organe touché se reproduisent lentement (peau, os) ou au contraire se reproduisent très vite (moelle osseuse) ou bien sont susceptibles d'affecter la descendance (gonades).
+particules alpha et autres noyaux atomiques : wR = 20.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sievert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sievert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pondération de la sensibilité du tissu biologique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'autre part, la dose équivalente permet de calculer des effets biologiques quand un organisme est exposé dans son ensemble à une dose relativement homogène, mais quand une exposition n'est que partielle, sa gravité doit encore être pondérée par la nature du tissu biologique qui a été exposé : quand une exposition est locale, son effet (essentiellement, un potentiel carcinogène ou mutagène) n'a pas la même gravité suivant que les cellules de l'organe touché se reproduisent lentement (peau, os) ou au contraire se reproduisent très vite (moelle osseuse) ou bien sont susceptibles d'affecter la descendance (gonades).
 La dose efficace, E, est le produit de la dose équivalente H et d'un facteur sans dimension : wT (facteur de pondération traduisant la plus ou moins grande sensibilité du tissu aux rayonnements).
 Voici quelques valeurs de wT pour les organes et tissus :
-gonades : wT = 0,08[3] ;
+gonades : wT = 0,08 ;
 estomac, gros intestin, moelle osseuse, poumon : wT = 0,12 ;
 cerveau, œsophage, foie, muscles, pancréas, petit intestin, rate, rein, sein, thyroïde, utérus, vessie : wT = 0,05 ;
 peau, surface des os : wT = 0,01.
@@ -556,111 +639,117 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Sievert</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sievert</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Effet des doses d'irradiations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mécanismes à l'œuvre dans le cas d'effets stochastiques  (donc quantifiés par des mesures en sieverts) et dans le cas d'effets déterministes (où les mesures doivent s'exprimer en grays) n'ont rien à voir :
 les effets stochastiques n'ont été mis en évidence que par l'étude épidémiologique de populations soumises à des doses uniques relativement importantes (supérieures à une centaine de millisieverts) ou à des débits de dose importants (de l'ordre du mSv/h) de manière prolongée ;
 les effets déterministes sont observables directement après (ou peu après) une irradiation intense (à partir du Gray). Ces effets ont été découverts au début de l'étude de la radioactivité. Cette découverte a abouti à la création de l'ancêtre de la Commission internationale de protection radiologique (CIPR, ou ICRP en anglais).
-Les facteurs de pondération wR et wT calculés par la CIPR évoluent au fur et à mesure que de nouvelles données scientifiques ou épidémiologiques apparaissent. Ils peuvent donc varier notablement (à la hausse ou à la baisse) suivant l'idée que les spécialistes de la question se font du risque. Ainsi, dans ses recommandations de 2007, la CIPR a estimé que le risque de transmission à la descendance était fortement surestimé dans leurs recommandations de 1990, et ils ont ramené le coefficient de pondération tissulaire pour les gonades de 0,20 à seulement 0,08[3].
+Les facteurs de pondération wR et wT calculés par la CIPR évoluent au fur et à mesure que de nouvelles données scientifiques ou épidémiologiques apparaissent. Ils peuvent donc varier notablement (à la hausse ou à la baisse) suivant l'idée que les spécialistes de la question se font du risque. Ainsi, dans ses recommandations de 2007, la CIPR a estimé que le risque de transmission à la descendance était fortement surestimé dans leurs recommandations de 1990, et ils ont ramené le coefficient de pondération tissulaire pour les gonades de 0,20 à seulement 0,08.
 Le sievert sert à quantifier le risque stochastique induit sur la santé des sujets par de faibles rayonnements : risque supplémentaire de décéder un jour d'un cancer, risque de transmettre un jour une mutation grave à un descendant. On peut utiliser le sievert pour exprimer de faibles expositions, par exemple pour la radioprotection des travailleurs et du public dans des conditions normales.
 Cependant, utiliser le sievert pour quantifier l'effet d'un rayonnement important (typiquement de l'ordre du Gy) est incorrect, car pour de telles doses l'effet n'est pas stochastique mais déterministe. Par exemple, une dose de 8 Gy est dite létale, car elle implique une mort certaine. Pour ces fortes doses, on doit s'exprimer en grays, l'usage du sievert est presque toujours proscrit.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Sievert</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sievert</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Dose reçue et signes cliniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'irradiation excessive est révélée par la présence de prodromes comme la nausée, la diarrhée, un sentiment de fatigue et de malaise.
 Par ailleurs, il a été observé que la déplétion lymphocytaire résultant de l'exposition à un rayonnement ionisant était directement proportionnelle à la dose efficace. Lors d'une probable irradiation chez un sujet, on effectue alors deux prises de sang à trois heures d'intervalle pour évaluer les éventuelles variations de la population lymphocytaire.
 L'irradiation a également un effet stochastique : elle provoque une augmentation du risque de cancer, en fonction de la dose reçue. Cet effet peut être détecté statistiquement. Le sievert est la mesure qui prend en compte cet effet.
-Les signes cliniques sont observés pour des irradiations massives, reçues sur une période très courte. Conformément à l'article sur les irradiations aiguës, il est incorrect d'utiliser le sievert lorsque l'on évoque les effets déterministes (ou non stochastique) des rayonnements. Le gray et le sievert sont deux unités « homogènes » que l'on peut donc comparer, mais de manière générale, au-delà d'une dose de un joule par kilogramme, la mesure s'exprime en grays[4]
+Les signes cliniques sont observés pour des irradiations massives, reçues sur une période très courte. Conformément à l'article sur les irradiations aiguës, il est incorrect d'utiliser le sievert lorsque l'on évoque les effets déterministes (ou non stochastique) des rayonnements. Le gray et le sievert sont deux unités « homogènes » que l'on peut donc comparer, mais de manière générale, au-delà d'une dose de un joule par kilogramme, la mesure s'exprime en grays
 Une dose de un sievert est un bon ordre de grandeur pour qualifier une irradiation de dangereuse pour la victime, justifiant un suivi médical particulier par la suite :
 En cas d'irradiation ponctuelle, la victime souffrira du « mal des rayons », et aura besoin d'un suivi hospitalier.
 Cette exposition entraîne le risque de développer un cancer mortel de 5 %.
 Pour des doses inférieures, et pour des doses cumulées reçues sur des durées longues, il n'y a pas d'effet déterministe observé, et les effets stochastiques sont impossibles à mesurer avec précision. En l'absence de données permettant de les départager, c'est un domaine où deux thèses opposées s'affrontent :
-De nombreuses études montrent que des faibles expositions (inférieures à 0,1 Sv) pourraient stimuler les mécanismes protecteurs des cellules (effet d'hormèse)[9]. Mais aucune donnée épidémiologique ne supporte encore ces résultats hors des laboratoires.
-Par précaution, la CIPR et les autorités réglementaires préfèrent  utiliser le modèle linéaire sans seuil[10], et suppose que les rayonnements ionisants restent potentiellement dangereux même aux très faibles doses. Avec ces hypothèses, une exposition prolongée à une dose de radioactivité augmente la probabilité d'apparition d'un cancer de cinq pour mille tous les 0,1 Sv reçus[11].
+De nombreuses études montrent que des faibles expositions (inférieures à 0,1 Sv) pourraient stimuler les mécanismes protecteurs des cellules (effet d'hormèse). Mais aucune donnée épidémiologique ne supporte encore ces résultats hors des laboratoires.
+Par précaution, la CIPR et les autorités réglementaires préfèrent  utiliser le modèle linéaire sans seuil, et suppose que les rayonnements ionisants restent potentiellement dangereux même aux très faibles doses. Avec ces hypothèses, une exposition prolongée à une dose de radioactivité augmente la probabilité d'apparition d'un cancer de cinq pour mille tous les 0,1 Sv reçus.
 Dans l'intervalle entre 10 mSv (un rem) et 1 Sv, la prévention des irradiations accidentelles est un sujet de préoccupation en matière de santé publique, du fait de l'excès statistique de cancers qu'elles entraîneraient, mais ces irradiations n'ont plus de conséquence identifiable à un niveau individuel.
-La Commission internationale de protection radiologique conseille de ne pas recevoir une dose annuelle de plus d'un millisievert, mais estime qu'une exposition inférieure à cent millisieverts par an ne représente pas, statistiquement, un risque d'augmentation de cancer[12].
+La Commission internationale de protection radiologique conseille de ne pas recevoir une dose annuelle de plus d'un millisievert, mais estime qu'une exposition inférieure à cent millisieverts par an ne représente pas, statistiquement, un risque d'augmentation de cancer.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Sievert</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sievert</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Exposition aux rayonnements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une particule ne transmet qu'une énergie négligeable. Le tableau suivant présente les flux de particules dans l'air (exprimés en nombre de particules par centimètre carré), en fonction du type de particule et de son énergie, pour une dose dans les tissus mous de 1 mSv[13].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une particule ne transmet qu'une énergie négligeable. Le tableau suivant présente les flux de particules dans l'air (exprimés en nombre de particules par centimètre carré), en fonction du type de particule et de son énergie, pour une dose dans les tissus mous de 1 mSv.
 Il faut ainsi une très grande activité (exprimée en becquerels, notés Bq) pour créer un risque réel pour la santé, tant que l'exposition se limite aux rayonnements à distance, sans contact avec la matière radioactive.
 Par exemple, une exposition externe à une contamination de 4 000 Bq/m2 (ordre de grandeur des retombées constatées en France à la suite de la catastrophe de Tchernobyl) d'une radioactivité que l'on suppose (pour le calcul) bêta à 1 MeV correspondrait à un flux d'électrons de 0,4 cm−2 s−1 électrons, donc une irradiation de 0,4 / 3,1 × 10−6 = 0,13 × 10−6 mSv s−1. Une exposition annuelle (soit pendant 32 × 106 secondes) à un rayonnement de cette amplitude conduit à une irradiation de 0,4 / (3,1 × 32) = 4 mSv, soit deux fois la dose moyenne naturelle, soit encore l'ordre de grandeur de la limite annuelle autorisée pour la population civile (à titre de comparaison, la dose absorbée pour une radio de poumon est de l’ordre de 0,3 mSv).
 Par ailleurs, la dose délivrée par un radio-élément peut être beaucoup plus élevée s'il est métabolisé et reste fixé dans un ou plusieurs organes (irradiation interne). C'est pourquoi le risque principal lié aux retombées de Tchernobyl pour les populations françaises est potentiellement le cancer de la thyroïde (irradiation interne de la thyroïde par de l'iode radioactif ingéré en buvant du lait).
@@ -668,73 +757,77 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Sievert</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sievert</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Ordres de grandeur et réglementation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Par commodité, on utilise couramment le millième de sievert, ou millisievert (mSv).
-Dose annuelle moyenne reçue en France : 4,5 mSv/an/personne (de 1,6 à 23,0), la part industrielle et militaire comptant pour moins de 1 %[Note 1] de ce total[15],[16].
-La région du Kerala en Inde est connue pour des taux de radioactivité très forts : jusqu'à 70 mGy/an[17] Le rayonnement naturel fait l'objet de rapport de l'UNSCEAR[18]
+Dose annuelle moyenne reçue en France : 4,5 mSv/an/personne (de 1,6 à 23,0), la part industrielle et militaire comptant pour moins de 1 %[Note 1] de ce total,.
+La région du Kerala en Inde est connue pour des taux de radioactivité très forts : jusqu'à 70 mGy/an Le rayonnement naturel fait l'objet de rapport de l'UNSCEAR
 Limite autorisée pour l'exposition de la population aux rayonnements artificiels, en France : 1 mSv/an/personne (Code de la santé publique, Article R1333-8).
 Limite autorisée pour les personnels exposés, en France : 20 mSv sur douze mois glissants par personne (Dosimétrie réglementaire), dosimétrie mensuelle fixée à 1,5 mSv, dosimétrie fixée par les entreprises à 16 mSv/an (Code du travail, Article R231-76).
 Limite annuelle d'exposition pour les travailleurs du nucléaire américains : 50 mSv sur 12 mois glissants et 100 mSv sur 5 ans glissants.
-Une radiographie des poumons : environ 0,1 mSv[19], une radiographie dentaire : environ 0,02 mSv[20].
-Un voyage Paris-New York aller et retour : 0,08 mSv, soit 4,7 µSv/h (en avion long-courrier non supersonique, dose due au rayonnement cosmique supplémentaire à environ 10 000 m d’altitude en croisière, hors périodes d’éruption solaire touchant la Terre)[21] : la dose reçue dépend essentiellement de l’altitude (selon le type d'appareil), du temps total de vol, de la latitude de route suivie et de la présence ou non d'escales, un peu moins de la période de l’année (proximité de la Terre avec le soleil), et de l'horaire, mais pratiquement pas de la nature matérielle de la carlingue (qui n’offre pratiquement pas d’écran à ces rayonnements sur les avions commerciaux civils). La limite annuelle d’exposition pour la population générale serait atteinte à 17 allers-retours par an sur ce trajet ; les personnels navigants dans les avions sur les lignes intercontinentales passant à proximité des pôles sont considérés comme des personnes exposées mais ne dépassent pas la limite légale de 16 mSv/an des travailleurs exposés dans les entreprises autorisées (qui correspondrait à 272 allers-retours sur cette même ligne par an), sauf éventuellement en période de forte activité solaire pour lesquels ils peuvent faire l'objet de mesures réglementaires temporaires de protection et de surveillance (par des détecteurs placés dans les avions de ligne).
-Le tabac possède une activité radioactive due aux isotopes 210Po et 210Pb. En termes de radioactivité, fumer cinq paquets de cigarettes est équivalent à recevoir une dose de 1 mSv, c’est-à-dire que la dose maximale admissible pour le public en une année[22]. Cependant, seule une faible partie de la radioactivité absorbée atteint les poumons, et les conséquences de la radioactivité sur les cancers et la mortalité est difficile à évaluer, d'autant plus que l'analyse est compliquée par l'effet éventuellement nul, voire bénéfique, de l’absorption de faibles doses de radioactivité[22].
+Une radiographie des poumons : environ 0,1 mSv, une radiographie dentaire : environ 0,02 mSv.
+Un voyage Paris-New York aller et retour : 0,08 mSv, soit 4,7 µSv/h (en avion long-courrier non supersonique, dose due au rayonnement cosmique supplémentaire à environ 10 000 m d’altitude en croisière, hors périodes d’éruption solaire touchant la Terre) : la dose reçue dépend essentiellement de l’altitude (selon le type d'appareil), du temps total de vol, de la latitude de route suivie et de la présence ou non d'escales, un peu moins de la période de l’année (proximité de la Terre avec le soleil), et de l'horaire, mais pratiquement pas de la nature matérielle de la carlingue (qui n’offre pratiquement pas d’écran à ces rayonnements sur les avions commerciaux civils). La limite annuelle d’exposition pour la population générale serait atteinte à 17 allers-retours par an sur ce trajet ; les personnels navigants dans les avions sur les lignes intercontinentales passant à proximité des pôles sont considérés comme des personnes exposées mais ne dépassent pas la limite légale de 16 mSv/an des travailleurs exposés dans les entreprises autorisées (qui correspondrait à 272 allers-retours sur cette même ligne par an), sauf éventuellement en période de forte activité solaire pour lesquels ils peuvent faire l'objet de mesures réglementaires temporaires de protection et de surveillance (par des détecteurs placés dans les avions de ligne).
+Le tabac possède une activité radioactive due aux isotopes 210Po et 210Pb. En termes de radioactivité, fumer cinq paquets de cigarettes est équivalent à recevoir une dose de 1 mSv, c’est-à-dire que la dose maximale admissible pour le public en une année. Cependant, seule une faible partie de la radioactivité absorbée atteint les poumons, et les conséquences de la radioactivité sur les cancers et la mortalité est difficile à évaluer, d'autant plus que l'analyse est compliquée par l'effet éventuellement nul, voire bénéfique, de l’absorption de faibles doses de radioactivité.
 Une centrale nucléaire française : 2 µSv/an soit 0,002 mSv/an (en état de fonctionnement normal, hors accident). Ce seuil est 500 fois plus faible que le seuil légal d'exposition de la population générale. Au-delà (incident sérieux), des mesures de protection de la population (et des travailleurs indispensables sur le site) peuvent être nécessaires (traitement préventif, surveillance et diversification des sources d'approvisionnement alimentaire ou en eau, confinement temporaire, procédures d'arrêt des installations) et en cas d'incident grave ces seuils peuvent être augmentés dans un périmètre défini (après évacuation de la population) une fois les autres mesures de protection effectives.
-À Fukushima Daiichi au Japon, lors de la catastrophe nucléaire liée à un tsunami, des journalistes ont mesuré, le 3 avril 2011, à 1,5 km de la centrale nucléaire des doses d'environ 112 µSv/h[23]. Le 14 mars 2011, une forte activité de 167 sieverts par heure a été enregistrée au niveau de l'enceinte de confinement du réacteur no 3 et une valeur du même ordre au niveau des autres réacteurs[24]. 
-Fin janvier 2017, TEPCO annonce une radioactivité mesurée de 530 Sv/h (± 30 %)  dans une partie métallique à l'intérieur de l'enceinte de confinement du réacteur no 2[25],[26].
+À Fukushima Daiichi au Japon, lors de la catastrophe nucléaire liée à un tsunami, des journalistes ont mesuré, le 3 avril 2011, à 1,5 km de la centrale nucléaire des doses d'environ 112 µSv/h. Le 14 mars 2011, une forte activité de 167 sieverts par heure a été enregistrée au niveau de l'enceinte de confinement du réacteur no 3 et une valeur du même ordre au niveau des autres réacteurs. 
+Fin janvier 2017, TEPCO annonce une radioactivité mesurée de 530 Sv/h (± 30 %)  dans une partie métallique à l'intérieur de l'enceinte de confinement du réacteur no 2,.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Sievert</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sievert</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Unités équivalentes et proches</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Les unités physiques mesurant la radioactivité sont nombreuses.
 Unités de mesure d'activité d'une source nucléaire :
@@ -761,7 +854,7 @@
 DLxx (xx % de la dose létale sans hospitalisation, évaluée à 10 Sv),
 Sunshine Unit ou Strontium Unit (symbole : S.U., avec 1 S.U. ~ 1,065 pGy/s) La contamination biologique au strontium-90 qui associe 1 pCi de 90Sr par gramme de calcium corporel; la charge permissible est de 1 000 S.U.
 Unité de « radiation » :
-le volt par mètre (symbole : V/m ou V⋅m-1). L'unité est utilisée pour mesurer les émissions radio (y compris radars) qui, bien que sans le moindre rapport avec les radiations ionisantes (car d’énergie élémentaire insuffisante pour libérer un électron et ioniser la matière), sont également appelées "radiations" et peuvent être assimilées à la radioactivité par un public peu au fait de la chose, alors même qu’il n'y a aucune radioactivité (c'est-à-dire aucune transformation de noyaux atomiques : 0 Bq), ni absorption non réversible du rayonnement quand un effet a lieu. L’unité mesure en réalité un champ électrique. À l’échelle microscopique, les cellules vivantes génèrent des champs pouvant atteindre 15 millions de V/m [27]. À l'échelle macroscopique de l'homme, les champs électriques d'origine naturelle sont très variables, de Modèle:Unté[28], difficiles à contrecarrer, et pourtant sans effets sensibles. Les nombreuses émissions artificielles d'origine humaine font maintenant l'objet de seuils recommandés d'exposition et de surveillance, exprimés dans cette unité, typiquement inférieur à 100 V/m[28].</t>
+le volt par mètre (symbole : V/m ou V⋅m-1). L'unité est utilisée pour mesurer les émissions radio (y compris radars) qui, bien que sans le moindre rapport avec les radiations ionisantes (car d’énergie élémentaire insuffisante pour libérer un électron et ioniser la matière), sont également appelées "radiations" et peuvent être assimilées à la radioactivité par un public peu au fait de la chose, alors même qu’il n'y a aucune radioactivité (c'est-à-dire aucune transformation de noyaux atomiques : 0 Bq), ni absorption non réversible du rayonnement quand un effet a lieu. L’unité mesure en réalité un champ électrique. À l’échelle microscopique, les cellules vivantes génèrent des champs pouvant atteindre 15 millions de V/m . À l'échelle macroscopique de l'homme, les champs électriques d'origine naturelle sont très variables, de Modèle:Unté, difficiles à contrecarrer, et pourtant sans effets sensibles. Les nombreuses émissions artificielles d'origine humaine font maintenant l'objet de seuils recommandés d'exposition et de surveillance, exprimés dans cette unité, typiquement inférieur à 100 V/m.</t>
         </is>
       </c>
     </row>
